--- a/Taxonomy-Niagara/Tridium_Taxonomy_Combined_Full.xlsx
+++ b/Taxonomy-Niagara/Tridium_Taxonomy_Combined_Full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\niagaradocs\dita-techdocs\Taxonomy-Niagara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CA1924-8562-4BEB-B426-7EC4E4DFFD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573307F-552B-4D39-8E84-94F3B9138CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="-40" windowWidth="17360" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxonomy Data" sheetId="1" r:id="rId1"/>
@@ -926,13 +926,15 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
@@ -1811,9 +1813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.31640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
@@ -2208,9 +2216,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="36.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">

--- a/Taxonomy-Niagara/Tridium_Taxonomy_Combined_Full.xlsx
+++ b/Taxonomy-Niagara/Tridium_Taxonomy_Combined_Full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\niagaradocs\dita-techdocs\Taxonomy-Niagara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\dita-techdocs\Taxonomy-Niagara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573307F-552B-4D39-8E84-94F3B9138CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED906956-F93F-47C6-95E3-01DD4CA0AE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-40" windowWidth="17360" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxonomy Data" sheetId="1" r:id="rId1"/>
@@ -923,21 +923,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1805,25 +1807,31 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22" xr:uid="{A9B2D4BA-A232-4615-8D2E-A64082FD0019}">
+      <formula1>"JACE,Supervisor,Edge"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +1951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2039,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2063,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2079,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2135,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2214,208 +2222,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>177</v>
       </c>
@@ -2423,4 +2432,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d546e5e1-5d42-4630-bacd-c69bfdcbd5e8}" enabled="1" method="Standard" siteId="{96ece526-9c7d-48b0-8daf-8b93c90a5d18}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Taxonomy-Niagara/Tridium_Taxonomy_Combined_Full.xlsx
+++ b/Taxonomy-Niagara/Tridium_Taxonomy_Combined_Full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\niagaradocs\dita-techdocs\Taxonomy-Niagara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573307F-552B-4D39-8E84-94F3B9138CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D307ED68-0D54-49BA-A903-0EE276533348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-40" windowWidth="17360" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taxonomy Data" sheetId="1" r:id="rId1"/>
@@ -926,18 +926,19 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1817,13 +1818,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.31640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2216,206 +2217,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>177</v>
       </c>
